--- a/REGULAR/OJT/VERGARA, CATHERENE R..xlsx
+++ b/REGULAR/OJT/VERGARA, CATHERENE R..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>VERGARA, CATHERENE R.</t>
+  </si>
+  <si>
+    <t>5/11,12,15/2023</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1118,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,7 +1161,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1225,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1285,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1351,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1414,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1512,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1571,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1636,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1679,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1754,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1940,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2006,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2064,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2130,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2186,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2261,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2304,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2370,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2426,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2524,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2587,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,9 +3034,9 @@
   <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A67"/>
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3196,7 +3199,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.25</v>
+        <v>50.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3206,7 +3209,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.25</v>
+        <v>43.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4488,13 +4491,15 @@
         <v>44986</v>
       </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
@@ -4506,13 +4511,15 @@
         <v>45017</v>
       </c>
       <c r="B72" s="20"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
@@ -4523,7 +4530,9 @@
       <c r="A73" s="40">
         <v>45047</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
@@ -4532,10 +4541,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H73" s="39"/>
+      <c r="H73" s="39">
+        <v>3</v>
+      </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">

--- a/REGULAR/OJT/VERGARA, CATHERENE R..xlsx
+++ b/REGULAR/OJT/VERGARA, CATHERENE R..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>5/11,12,15/2023</t>
+  </si>
+  <si>
+    <t>PARENTAL 5/25,26/2023</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1121,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1164,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1228,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,7 +1288,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1354,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1417,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1515,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1574,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1639,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1682,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1757,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1943,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,7 +2009,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2067,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2133,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2189,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2264,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2307,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2373,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2429,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2527,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2590,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2656,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3031,12 +3034,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K140"/>
+  <dimension ref="A2:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4551,10 +4554,10 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B74" s="20"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
@@ -4566,11 +4569,13 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4588,7 +4593,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4606,7 +4611,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4624,7 +4629,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4642,7 +4647,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4660,7 +4665,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4678,7 +4683,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4696,7 +4701,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4714,7 +4719,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4732,7 +4737,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4750,7 +4755,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4767,7 +4772,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45413</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5631,20 +5638,36 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="41"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="43"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="43"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="15"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="41"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="43"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/VERGARA, CATHERENE R..xlsx
+++ b/REGULAR/OJT/VERGARA, CATHERENE R..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1121,7 +1121,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1164,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1228,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1288,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1354,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1417,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,7 +1639,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1682,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1757,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1943,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2009,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2067,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2133,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2189,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2264,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2307,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2373,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2429,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2527,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2590,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +3039,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,7 +3202,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>50.75</v>
+        <v>52.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3212,7 +3212,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>43.75</v>
+        <v>46.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4536,13 +4536,15 @@
       <c r="B73" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="13"/>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39">
         <v>3</v>
@@ -4578,13 +4580,15 @@
         <v>45078</v>
       </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -4595,9 +4599,13 @@
       <c r="A76" s="40">
         <v>45108</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>1</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -4607,7 +4615,9 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="49">
+        <v>45118</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">

--- a/REGULAR/OJT/VERGARA, CATHERENE R..xlsx
+++ b/REGULAR/OJT/VERGARA, CATHERENE R..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1121,7 +1121,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1164,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1228,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1288,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1354,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1417,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,7 +1639,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1682,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1757,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1943,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2009,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2067,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2133,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2189,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2264,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2307,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2373,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2429,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2527,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2590,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +3039,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,7 +3202,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.25</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3212,7 +3212,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.25</v>
+        <v>48.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4602,15 +4602,17 @@
       <c r="B76" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39">
         <v>1</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4624,13 +4626,15 @@
         <v>45139</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4641,9 +4645,13 @@
       <c r="A78" s="40">
         <v>45170</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="39"/>
+      <c r="D78" s="39">
+        <v>1</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13" t="str">
@@ -4653,7 +4661,9 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="49">
+        <v>45183</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
